--- a/marks.xlsx
+++ b/marks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Python Projects\ExamWiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACF3969-2E38-426A-AD71-7D632CBEA7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1ECC69D-A776-4230-9246-1C2F369E5AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,7 +938,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
